--- a/Final Project/LocomotiveDictionaryContent.xlsx
+++ b/Final Project/LocomotiveDictionaryContent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BYUI Fall 2022\WDD 130\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658467FF-1995-48FA-A5AD-3C4830283568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8BBE4F-5999-4C2E-BD63-0B103F5910FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="16920" windowHeight="10540" xr2:uid="{B2959261-43B5-4B83-BA12-310F24508F92}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{B2959261-43B5-4B83-BA12-310F24508F92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>Builder</t>
   </si>
@@ -68,24 +68,12 @@
     <t>SD40-3</t>
   </si>
   <si>
-    <t>SD70M</t>
-  </si>
-  <si>
     <t>SD70MAC</t>
   </si>
   <si>
-    <t>SD70ACe</t>
-  </si>
-  <si>
     <t>GE</t>
   </si>
   <si>
-    <t>SD70AH</t>
-  </si>
-  <si>
-    <t>SD60M</t>
-  </si>
-  <si>
     <t>Dash9 44CW</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
     <t>AC4400CW</t>
   </si>
   <si>
-    <t>AC6000CW</t>
-  </si>
-  <si>
     <t>ES40DC</t>
   </si>
   <si>
@@ -122,24 +107,15 @@
     <t xml:space="preserve">Videos </t>
   </si>
   <si>
-    <t xml:space="preserve">RR Ops </t>
-  </si>
-  <si>
     <t>DPU</t>
   </si>
   <si>
-    <t xml:space="preserve">Signals </t>
-  </si>
-  <si>
     <t>Jargon</t>
   </si>
   <si>
     <t xml:space="preserve">Train types </t>
   </si>
   <si>
-    <t xml:space="preserve">Class 1 RR Names </t>
-  </si>
-  <si>
     <t xml:space="preserve">Danny Harmon </t>
   </si>
   <si>
@@ -150,6 +126,42 @@
   </si>
   <si>
     <t>Online</t>
+  </si>
+  <si>
+    <t>SD70AC</t>
+  </si>
+  <si>
+    <t>SD70ACeT4</t>
+  </si>
+  <si>
+    <t>Manifest</t>
+  </si>
+  <si>
+    <t>Autoracks</t>
+  </si>
+  <si>
+    <t>Intermodal</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grainers </t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Unit trains </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR ops </t>
+  </si>
+  <si>
+    <t xml:space="preserve">signals </t>
   </si>
 </sst>
 </file>
@@ -501,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309295B7-5DD0-4AF5-8318-4A040CC78453}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,9 +525,10 @@
     <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,16 +536,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -540,16 +550,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -557,16 +567,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -574,16 +584,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -591,16 +601,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -608,13 +621,19 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -622,10 +641,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -633,10 +655,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -644,21 +669,27 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -666,150 +697,123 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
